--- a/7/3/3/Mercado Externo 2013 a 2021 - Trimestral.xlsx
+++ b/7/3/3/Mercado Externo 2013 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Serie</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y34"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3142,7 +3145,7 @@
         <v>-261</v>
       </c>
       <c r="Q34">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="R34">
         <v>3078</v>
@@ -3166,7 +3169,84 @@
         <v>-1174</v>
       </c>
       <c r="Y34">
-        <v>1169</v>
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35">
+        <v>343</v>
+      </c>
+      <c r="C35">
+        <v>45</v>
+      </c>
+      <c r="D35">
+        <v>-541</v>
+      </c>
+      <c r="E35">
+        <v>65</v>
+      </c>
+      <c r="F35">
+        <v>354</v>
+      </c>
+      <c r="G35">
+        <v>32</v>
+      </c>
+      <c r="H35">
+        <v>-24</v>
+      </c>
+      <c r="I35">
+        <v>33</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>161</v>
+      </c>
+      <c r="L35">
+        <v>-110</v>
+      </c>
+      <c r="M35">
+        <v>78</v>
+      </c>
+      <c r="N35">
+        <v>954</v>
+      </c>
+      <c r="O35">
+        <v>220</v>
+      </c>
+      <c r="P35">
+        <v>-752</v>
+      </c>
+      <c r="Q35">
+        <v>-64</v>
+      </c>
+      <c r="R35">
+        <v>2486</v>
+      </c>
+      <c r="S35">
+        <v>114</v>
+      </c>
+      <c r="T35">
+        <v>-51</v>
+      </c>
+      <c r="U35">
+        <v>293</v>
+      </c>
+      <c r="V35">
+        <v>4137</v>
+      </c>
+      <c r="W35">
+        <v>571</v>
+      </c>
+      <c r="X35">
+        <v>-1478</v>
+      </c>
+      <c r="Y35">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
